--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DF1DCE-C882-43F1-97C1-11A25B03AA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC4E04-B20E-4973-941A-CCB92C21E41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,8 +2095,8 @@
         <v>22</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="1"/>
-        <v>0.87480000000000002</v>
+        <f>1-2*(1-E38)</f>
+        <v>0.94399999999999995</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3">

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC4E04-B20E-4973-941A-CCB92C21E41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A8754-CC52-4F3C-AFF4-E9B25502FDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="152">
   <si>
     <t>Parameter name</t>
   </si>
@@ -486,6 +486,12 @@
   </si>
   <si>
     <t>Ethanol_fresh.price = x</t>
+  </si>
+  <si>
+    <t>KOH unit price</t>
+  </si>
+  <si>
+    <t>KOH_fresh.price = x</t>
   </si>
 </sst>
 </file>
@@ -846,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,7 +1235,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1241,29 +1247,27 @@
         <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>33</v>
+        <v>1.6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" ref="H12" si="0">E12</f>
-        <v>33</v>
+        <f>0.8*E12</f>
+        <v>1.2800000000000002</v>
       </c>
       <c r="I12" s="3">
-        <v>50</v>
+        <f>1.2*E12</f>
+        <v>1.92</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -1275,95 +1279,98 @@
         <v>10</v>
       </c>
       <c r="E13" s="3">
-        <v>1.4419999999999999</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>1.4419999999999999</v>
+        <f t="shared" ref="H13" si="0">E13</f>
+        <v>33</v>
       </c>
       <c r="I13" s="3">
-        <v>2.1</v>
+        <v>50</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>15944</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="3">
-        <f>0.8*E14</f>
-        <v>12755.2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
-        <f>E14</f>
-        <v>15944</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="I14" s="3">
-        <f>1.2*E14</f>
-        <v>19132.8</v>
+        <v>2.1</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3">
-        <v>0.21</v>
+        <v>15944</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G15" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="H15" s="3"/>
+        <f>0.8*E15</f>
+        <v>12755.2</v>
+      </c>
+      <c r="H15" s="3">
+        <f>E15</f>
+        <v>15944</v>
+      </c>
       <c r="I15" s="3">
-        <v>0.28000000000000003</v>
+        <f>1.2*E15</f>
+        <v>19132.8</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -1375,59 +1382,57 @@
         <v>8</v>
       </c>
       <c r="E16" s="3">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="3">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>0.12</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>76.903000000000006</v>
+        <v>0.1</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="3">
-        <v>41.707000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <v>101.9</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>0.12</v>
+      </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>45</v>
@@ -1439,28 +1444,28 @@
         <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>10.228</v>
+        <v>76.903000000000006</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="3">
-        <v>5.5469999999999997</v>
+        <v>41.707000000000001</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>14.909000000000001</v>
+        <v>101.9</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>45</v>
@@ -1469,31 +1474,31 @@
         <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>10</v>
+        <v>10.228</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="3">
-        <f>0.8*E19</f>
-        <v>8</v>
+        <v>5.5469999999999997</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <f>1.2*E19</f>
-        <v>12</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>14.909000000000001</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="K19" s="3" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>45</v>
@@ -1502,29 +1507,31 @@
         <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3">
+        <f>0.8*E20</f>
         <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.5</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
-        <v>2</v>
-      </c>
-      <c r="J20" s="3"/>
+        <f>1.2*E20</f>
+        <v>12</v>
+      </c>
+      <c r="J20" s="5"/>
       <c r="K20" s="3" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>45</v>
@@ -1536,27 +1543,26 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="3">
-        <f>0.9*E21</f>
-        <v>0.85499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>45</v>
@@ -1568,28 +1574,27 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="3">
         <f>0.9*E22</f>
-        <v>4.5000000000000005E-2</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
-        <f>1.1*E22</f>
-        <v>5.5000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>45</v>
@@ -1598,31 +1603,31 @@
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E23" s="3">
-        <v>0.40479999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="3">
-        <f>0.8*E23</f>
-        <v>0.32384000000000002</v>
+        <f>0.9*E23</f>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3">
-        <f>1.2*E23</f>
-        <v>0.48575999999999997</v>
+        <f>1.1*E23</f>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>45</v>
@@ -1631,31 +1636,31 @@
         <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E24" s="3">
-        <v>35.9</v>
+        <v>0.40479999999999999</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="3">
-        <f>E24*0.8</f>
-        <v>28.72</v>
+        <f>0.8*E24</f>
+        <v>0.32384000000000002</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3">
-        <f>E24*1.2</f>
-        <v>43.08</v>
+        <f>1.2*E24</f>
+        <v>0.48575999999999997</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>45</v>
@@ -1664,31 +1669,31 @@
         <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.12</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="3">
+        <v>35.9</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="3">
         <f>E25*0.8</f>
-        <v>9.6000000000000002E-2</v>
+        <v>28.72</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
         <f>E25*1.2</f>
-        <v>0.14399999999999999</v>
+        <v>43.08</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>45</v>
@@ -1697,31 +1702,31 @@
         <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.33900000000000002</v>
+        <v>30</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.12</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="3">
         <f>E26*0.8</f>
-        <v>0.27120000000000005</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
         <f>E26*1.2</f>
-        <v>0.40679999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>45</v>
@@ -1733,31 +1738,31 @@
         <v>20</v>
       </c>
       <c r="E27" s="3">
-        <v>8.856E-2</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="3">
         <f>E27*0.8</f>
-        <v>7.0848000000000008E-2</v>
+        <v>0.27120000000000005</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3">
         <f>E27*1.2</f>
-        <v>0.10627199999999999</v>
+        <v>0.40679999999999999</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
@@ -1766,26 +1771,28 @@
         <v>20</v>
       </c>
       <c r="E28" s="3">
-        <v>0.2087</v>
+        <v>8.856E-2</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3">
-        <v>4.6300000000000001E-2</v>
+        <f>E28*0.8</f>
+        <v>7.0848000000000008E-2</v>
       </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="4">
-        <v>0.34</v>
+      <c r="I28" s="3">
+        <f>E28*1.2</f>
+        <v>0.10627199999999999</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>55</v>
@@ -1794,29 +1801,29 @@
         <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>0.2087</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="3">
-        <v>0.8</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="3">
-        <v>1.2</v>
+      <c r="I29" s="4">
+        <v>0.34</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>55</v>
@@ -1825,29 +1832,29 @@
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E30" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3">
-        <v>14</v>
+        <v>1.2</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>55</v>
@@ -1856,30 +1863,29 @@
         <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3">
         <v>8</v>
       </c>
-      <c r="E31" s="3">
-        <v>0.95</v>
-      </c>
       <c r="F31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="3">
-        <f>E31*0.8</f>
-        <v>0.76</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>55</v>
@@ -1891,28 +1897,27 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="3">
         <f>E32*0.8</f>
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3">
-        <f>E32*1.2</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>55</v>
@@ -1924,61 +1929,61 @@
         <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="3">
         <f>E33*0.8</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.4</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3">
         <f>E33*1.2</f>
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="E34" s="3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" ref="G34:G38" si="1">0.9*E34</f>
-        <v>0.18000000000000002</v>
+        <f>E34*0.8</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3">
-        <f>1.1*E34</f>
-        <v>0.22000000000000003</v>
+        <f>E34*1.2</f>
+        <v>0.06</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>98</v>
@@ -1987,31 +1992,31 @@
         <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="E35" s="3">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="1"/>
-        <v>1.08</v>
+        <f t="shared" ref="G35:G38" si="1">0.9*E35</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3">
         <f>1.1*E35</f>
-        <v>1.32</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>98</v>
@@ -2020,31 +2025,31 @@
         <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E36" s="3">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>1.08</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3">
         <f>1.1*E36</f>
-        <v>110.00000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>98</v>
@@ -2053,31 +2058,31 @@
         <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E37" s="3">
-        <v>3500000</v>
+        <v>100</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="1"/>
-        <v>3150000</v>
+        <v>90</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3">
         <f>1.1*E37</f>
-        <v>3850000.0000000005</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>98</v>
@@ -2086,30 +2091,31 @@
         <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="E38" s="3">
-        <v>0.97199999999999998</v>
+        <v>3500000</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="3">
-        <f>1-2*(1-E38)</f>
-        <v>0.94399999999999995</v>
+        <f t="shared" si="1"/>
+        <v>3150000</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3">
-        <v>1</v>
+        <f>1.1*E38</f>
+        <v>3850000.0000000005</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>98</v>
@@ -2118,29 +2124,30 @@
         <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G39" s="3">
-        <v>0.1</v>
+        <f>1-2*(1-E39)</f>
+        <v>0.94399999999999995</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>98</v>
@@ -2149,31 +2156,29 @@
         <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E40" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="3">
-        <f>0.9*E40</f>
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3">
-        <f>1.1*E40</f>
-        <v>0.55000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>98</v>
@@ -2182,31 +2187,31 @@
         <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="E41" s="3">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="3">
         <f>0.9*E41</f>
-        <v>8.01</v>
+        <v>0.45</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3">
         <f>1.1*E41</f>
-        <v>9.7900000000000009</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>98</v>
@@ -2215,31 +2220,31 @@
         <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
+        <v>8.9</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="3">
         <f>0.9*E42</f>
-        <v>90</v>
+        <v>8.01</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3">
         <f>1.1*E42</f>
-        <v>110.00000000000001</v>
+        <v>9.7900000000000009</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>98</v>
@@ -2248,31 +2253,31 @@
         <v>27</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="E43" s="3">
-        <v>0.86499999999999999</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="3">
         <f>0.9*E43</f>
-        <v>0.77849999999999997</v>
+        <v>90</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3">
         <f>1.1*E43</f>
-        <v>0.95150000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>98</v>
@@ -2281,31 +2286,31 @@
         <v>27</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>2000000</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="3">
         <f>0.9*E44</f>
-        <v>1800000</v>
+        <v>0.77849999999999997</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3">
         <f>1.1*E44</f>
-        <v>2200000</v>
+        <v>0.95150000000000001</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>98</v>
@@ -2314,29 +2319,31 @@
         <v>27</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E45" s="3">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="3">
-        <v>0.1</v>
+        <f>0.9*E45</f>
+        <v>1800000</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3">
-        <v>1.9</v>
+        <f>1.1*E45</f>
+        <v>2200000</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>98</v>
@@ -2345,31 +2352,29 @@
         <v>27</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="E46" s="3">
-        <v>8.01</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G46" s="3">
-        <f>0.9*E46</f>
-        <v>7.2089999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3">
-        <f>1.1*E46</f>
-        <v>8.8109999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>98</v>
@@ -2378,29 +2383,31 @@
         <v>27</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E47" s="3">
-        <v>0.999</v>
+        <v>8.01</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="3">
-        <v>0.98</v>
+        <f>0.9*E47</f>
+        <v>7.2089999999999996</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3">
-        <v>1</v>
+        <f>1.1*E47</f>
+        <v>8.8109999999999999</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>98</v>
@@ -2409,224 +2416,222 @@
         <v>27</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E49" s="3">
         <f>130</f>
         <v>130</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="3">
-        <f>0.9*E48</f>
-        <v>117</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3">
-        <f>1.1*E48</f>
-        <v>143</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2000000</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="3">
         <f>0.9*E49</f>
-        <v>1800000</v>
+        <v>117</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3">
         <f>1.1*E49</f>
-        <v>2200000</v>
+        <v>143</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D50" s="3" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E50" s="3">
-        <v>35.334000000000003</v>
+        <v>2000000</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" ref="G50:G52" si="2">0.9*E50</f>
-        <v>31.800600000000003</v>
+        <f>0.9*E50</f>
+        <v>1800000</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3">
-        <f t="shared" ref="I50:I52" si="3">1.1*E50</f>
-        <v>38.867400000000004</v>
+        <f>1.1*E50</f>
+        <v>2200000</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" s="3">
-        <v>42.439</v>
+        <v>35.334000000000003</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" ref="G51" si="4">0.9*E51</f>
-        <v>38.195100000000004</v>
+        <f t="shared" ref="G51:G53" si="2">0.9*E51</f>
+        <v>31.800600000000003</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3">
-        <f t="shared" ref="I51" si="5">1.1*E51</f>
-        <v>46.682900000000004</v>
+        <f t="shared" ref="I51:I53" si="3">1.1*E51</f>
+        <v>38.867400000000004</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="3">
+        <v>42.439</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" ref="G52" si="4">0.9*E52</f>
+        <v>38.195100000000004</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
+        <f t="shared" ref="I52" si="5">1.1*E52</f>
+        <v>46.682900000000004</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="3">
         <v>35.506</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="F53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="3">
         <f t="shared" si="2"/>
         <v>31.955400000000001</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3">
         <f t="shared" si="3"/>
         <v>39.056600000000003</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="3">
-        <v>168</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" s="3">
-        <v>134.4</v>
-      </c>
-      <c r="H53" s="3">
-        <v>168</v>
-      </c>
-      <c r="I53" s="3">
-        <v>201.6</v>
-      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E54" s="3">
-        <v>0.8</v>
+        <v>168</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G54" s="3">
-        <f>E54*0.9</f>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="H54" s="3"/>
+        <v>134.4</v>
+      </c>
+      <c r="H54" s="3">
+        <v>168</v>
+      </c>
       <c r="I54" s="3">
-        <f>E54*1.1</f>
-        <v>0.88000000000000012</v>
+        <v>201.6</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>23</v>
@@ -2638,22 +2643,55 @@
         <v>8</v>
       </c>
       <c r="E55" s="3">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="3">
         <f>E55*0.9</f>
-        <v>0.76500000000000001</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3">
         <f>E55*1.1</f>
-        <v>0.93500000000000005</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="3">
+        <f>E56*0.9</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3">
+        <f>E56*1.1</f>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
         <v>59</v>
       </c>
     </row>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A8754-CC52-4F3C-AFF4-E9B25502FDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E76B64-10C3-4837-B27F-991A0C8E9B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,9 +365,6 @@
     <t>R401.P = x</t>
   </si>
   <si>
-    <t>R401.TAL_to_HMTHP_rxn.X = x</t>
-  </si>
-  <si>
     <t>Hydrogenation spent catalyst NiSiO2 replacement rate</t>
   </si>
   <si>
@@ -380,33 +377,15 @@
     <t>R402.mcat_frac = x</t>
   </si>
   <si>
-    <t>Dehydration reaction time</t>
-  </si>
-  <si>
     <t>R402.tau = x</t>
   </si>
   <si>
-    <t>Dehydration temperature</t>
-  </si>
-  <si>
     <t>R402.T = 273.15 + x</t>
   </si>
   <si>
-    <t>Dehydration HMTHP-to-PSA conversion</t>
-  </si>
-  <si>
-    <t>R402.HMTHP_to_PSA_rxn.X = x</t>
-  </si>
-  <si>
-    <t>Dehydration pressure</t>
-  </si>
-  <si>
     <t>R402.P = x</t>
   </si>
   <si>
-    <t>Dehydration spent catalyst Amberlyst70 replacement rate</t>
-  </si>
-  <si>
     <t>R402.spent_catalyst_replacements_per_year  = x</t>
   </si>
   <si>
@@ -431,9 +410,6 @@
     <t>R401.Amberlyst70_catalyst_price = x; fresh_catalyst_Amberlyst70 = x</t>
   </si>
   <si>
-    <t>Dehydration catalyst Amberlyst70:HMTHP ratio</t>
-  </si>
-  <si>
     <t>Hydrogenation TAL-to-HMP conversion</t>
   </si>
   <si>
@@ -492,6 +468,30 @@
   </si>
   <si>
     <t>KOH_fresh.price = x</t>
+  </si>
+  <si>
+    <t>Etherification &amp; hydrolysis reaction time</t>
+  </si>
+  <si>
+    <t>Etherification &amp; hydrolysis temperature</t>
+  </si>
+  <si>
+    <t>Etherification &amp; hydrolysis pressure</t>
+  </si>
+  <si>
+    <t>Etherification &amp; hydrolysis spent catalyst Amberlyst70 replacement rate</t>
+  </si>
+  <si>
+    <t>R401.TAL_to_HMP_rxn.X = x</t>
+  </si>
+  <si>
+    <t>Etherification &amp; hydrolysis catalyst Amberlyst70:HMP ratio</t>
+  </si>
+  <si>
+    <t>Etherification &amp; hydrolysis HMP-to-PSA conversion</t>
+  </si>
+  <si>
+    <t>R402.HMP_to_PSA_rxn.X = x</t>
   </si>
 </sst>
 </file>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1230,12 +1230,12 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1577,7 +1577,7 @@
         <v>0.95</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G22" s="3">
         <f>0.9*E22</f>
@@ -1900,7 +1900,7 @@
         <v>0.95</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G32" s="3">
         <f>E32*0.8</f>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>98</v>
@@ -2130,24 +2130,27 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G39" s="3">
-        <f>1-2*(1-E39)</f>
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="H39" s="3"/>
+        <f>0.9*E39</f>
+        <v>0.87480000000000002</v>
+      </c>
+      <c r="H39" s="3">
+        <f>E39</f>
+        <v>0.97199999999999998</v>
+      </c>
       <c r="I39" s="3">
         <v>1</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>98</v>
@@ -2156,7 +2159,7 @@
         <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
@@ -2173,12 +2176,12 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>98</v>
@@ -2206,12 +2209,12 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>98</v>
@@ -2239,12 +2242,12 @@
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>98</v>
@@ -2272,12 +2275,12 @@
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>98</v>
@@ -2305,12 +2308,12 @@
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>98</v>
@@ -2338,12 +2341,12 @@
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>98</v>
@@ -2352,7 +2355,7 @@
         <v>27</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -2369,12 +2372,12 @@
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>98</v>
@@ -2402,12 +2405,12 @@
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>98</v>
@@ -2422,23 +2425,27 @@
         <v>0.999</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G48" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="H48" s="3"/>
+        <f>0.9*E48</f>
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="H48" s="3">
+        <f>E48</f>
+        <v>0.999</v>
+      </c>
       <c r="I48" s="3">
         <v>1</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>98</v>
@@ -2467,12 +2474,12 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>98</v>
@@ -2500,19 +2507,19 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E51" s="3">
         <v>35.334000000000003</v>
@@ -2531,19 +2538,19 @@
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E52" s="3">
         <v>42.439</v>
@@ -2562,19 +2569,19 @@
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E53" s="3">
         <v>35.506</v>
@@ -2593,12 +2600,12 @@
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>14</v>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E76B64-10C3-4837-B27F-991A0C8E9B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5891D9-7E90-4CF7-AA06-E6F6EF73B66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:H39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,7 +1583,10 @@
         <f>0.9*E22</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <f>E22</f>
+        <v>0.95</v>
+      </c>
       <c r="I22" s="3">
         <v>1</v>
       </c>
@@ -1906,7 +1909,10 @@
         <f>E32*0.8</f>
         <v>0.76</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3">
+        <f>E32</f>
+        <v>0.95</v>
+      </c>
       <c r="I32" s="3">
         <v>1</v>
       </c>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5891D9-7E90-4CF7-AA06-E6F6EF73B66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE66905-0C08-4A62-A5D9-19E93A701DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,7 +868,7 @@
     <col min="11" max="11" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -903,7 +903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -933,8 +933,12 @@
       <c r="K2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q2">
+        <f>IF(E2=H2, 1, IF(F2=$F$2, 1, 0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>78</v>
       </c>
@@ -969,8 +973,12 @@
       <c r="K3" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q54" si="0">IF(E3=H3, 1, IF(F3=$F$2, 1, 0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1002,8 +1010,12 @@
       <c r="K4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1035,8 +1047,12 @@
       <c r="K5" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1068,8 +1084,12 @@
       <c r="K6" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1104,8 +1124,12 @@
       <c r="K7" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
@@ -1137,8 +1161,12 @@
       <c r="K8" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>90</v>
       </c>
@@ -1168,8 +1196,12 @@
       <c r="K9" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>138</v>
       </c>
@@ -1199,8 +1231,12 @@
       <c r="K10" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>139</v>
       </c>
@@ -1232,8 +1268,12 @@
       <c r="K11" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -1264,8 +1304,12 @@
       <c r="K12" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -1288,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" ref="H13" si="0">E13</f>
+        <f t="shared" ref="H13" si="1">E13</f>
         <v>33</v>
       </c>
       <c r="I13" s="3">
@@ -1298,8 +1342,12 @@
       <c r="K13" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -1331,8 +1379,12 @@
       <c r="K14" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
@@ -1367,8 +1419,12 @@
       <c r="K15" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>81</v>
       </c>
@@ -1398,8 +1454,12 @@
       <c r="K16" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -1429,8 +1489,12 @@
       <c r="K17" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -1462,8 +1526,12 @@
       <c r="K18" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>88</v>
       </c>
@@ -1495,8 +1563,12 @@
       <c r="K19" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1528,8 +1600,12 @@
       <c r="K20" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
@@ -1559,8 +1635,12 @@
       <c r="K21" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1674,12 @@
       <c r="K22" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -1627,8 +1711,12 @@
       <c r="K23" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1660,8 +1748,12 @@
       <c r="K24" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -1693,8 +1785,12 @@
       <c r="K25" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -1726,8 +1822,12 @@
       <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
@@ -1759,8 +1859,12 @@
       <c r="K27" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>72</v>
       </c>
@@ -1792,8 +1896,12 @@
       <c r="K28" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>70</v>
       </c>
@@ -1823,8 +1931,12 @@
       <c r="K29" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
@@ -1854,8 +1966,12 @@
       <c r="K30" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -1885,8 +2001,12 @@
       <c r="K31" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -1920,8 +2040,12 @@
       <c r="K32" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
@@ -1953,8 +2077,12 @@
       <c r="K33" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -1986,8 +2114,12 @@
       <c r="K34" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>97</v>
       </c>
@@ -2007,7 +2139,7 @@
         <v>22</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" ref="G35:G38" si="1">0.9*E35</f>
+        <f t="shared" ref="G35:G38" si="2">0.9*E35</f>
         <v>0.18000000000000002</v>
       </c>
       <c r="H35" s="3"/>
@@ -2019,8 +2151,12 @@
       <c r="K35" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>101</v>
       </c>
@@ -2040,7 +2176,7 @@
         <v>22</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.08</v>
       </c>
       <c r="H36" s="3"/>
@@ -2052,8 +2188,12 @@
       <c r="K36" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>103</v>
       </c>
@@ -2073,7 +2213,7 @@
         <v>22</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="H37" s="3"/>
@@ -2085,8 +2225,12 @@
       <c r="K37" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>106</v>
       </c>
@@ -2106,7 +2250,7 @@
         <v>22</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3150000</v>
       </c>
       <c r="H38" s="3"/>
@@ -2118,8 +2262,12 @@
       <c r="K38" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>124</v>
       </c>
@@ -2153,8 +2301,12 @@
       <c r="K39" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>109</v>
       </c>
@@ -2184,8 +2336,12 @@
       <c r="K40" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>149</v>
       </c>
@@ -2217,8 +2373,12 @@
       <c r="K41" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>144</v>
       </c>
@@ -2250,8 +2410,12 @@
       <c r="K42" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>145</v>
       </c>
@@ -2283,8 +2447,12 @@
       <c r="K43" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>150</v>
       </c>
@@ -2316,8 +2484,12 @@
       <c r="K44" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>146</v>
       </c>
@@ -2349,8 +2521,12 @@
       <c r="K45" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>147</v>
       </c>
@@ -2380,8 +2556,12 @@
       <c r="K46" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>117</v>
       </c>
@@ -2413,8 +2593,12 @@
       <c r="K47" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>125</v>
       </c>
@@ -2448,8 +2632,12 @@
       <c r="K48" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>120</v>
       </c>
@@ -2482,8 +2670,12 @@
       <c r="K49" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>127</v>
       </c>
@@ -2515,8 +2707,12 @@
       <c r="K50" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>129</v>
       </c>
@@ -2534,20 +2730,24 @@
         <v>22</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" ref="G51:G53" si="2">0.9*E51</f>
+        <f t="shared" ref="G51:G53" si="3">0.9*E51</f>
         <v>31.800600000000003</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3">
-        <f t="shared" ref="I51:I53" si="3">1.1*E51</f>
+        <f t="shared" ref="I51:I53" si="4">1.1*E51</f>
         <v>38.867400000000004</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>133</v>
       </c>
@@ -2565,20 +2765,24 @@
         <v>22</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" ref="G52" si="4">0.9*E52</f>
+        <f t="shared" ref="G52" si="5">0.9*E52</f>
         <v>38.195100000000004</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3">
-        <f t="shared" ref="I52" si="5">1.1*E52</f>
+        <f t="shared" ref="I52" si="6">1.1*E52</f>
         <v>46.682900000000004</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>130</v>
       </c>
@@ -2596,20 +2800,24 @@
         <v>22</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.955400000000001</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.056600000000003</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>126</v>
       </c>
@@ -2641,8 +2849,12 @@
       <c r="K54" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>24</v>
       </c>
@@ -2675,7 +2887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE66905-0C08-4A62-A5D9-19E93A701DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B75C399-8AF9-4A98-AB5E-85550D0A1CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,19 +2170,19 @@
         <v>15</v>
       </c>
       <c r="E36" s="3">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="2"/>
-        <v>1.08</v>
+        <v>5.58</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3">
         <f>1.1*E36</f>
-        <v>1.32</v>
+        <v>6.8200000000000012</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
@@ -2392,19 +2392,19 @@
         <v>15</v>
       </c>
       <c r="E42" s="3">
-        <v>8.9</v>
+        <v>17.8</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="3">
         <f>0.9*E42</f>
-        <v>8.01</v>
+        <v>16.02</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3">
         <f>1.1*E42</f>
-        <v>9.7900000000000009</v>
+        <v>19.580000000000002</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
@@ -2575,19 +2575,19 @@
         <v>15</v>
       </c>
       <c r="E47" s="3">
-        <v>8.01</v>
+        <v>16</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="3">
         <f>0.9*E47</f>
-        <v>7.2089999999999996</v>
+        <v>14.4</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3">
         <f>1.1*E47</f>
-        <v>8.8109999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B75C399-8AF9-4A98-AB5E-85550D0A1CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7177EC5F-4822-41F1-A018-230AFA072E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -855,7 +855,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1657,16 +1657,13 @@
         <v>0.95</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G22" s="3">
-        <f>0.9*E22</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="H22" s="3">
-        <f>E22</f>
-        <v>0.95</v>
-      </c>
+        <f>1-2*(1-E22)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="3">
         <v>1</v>
       </c>
@@ -2023,16 +2020,13 @@
         <v>0.95</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G32" s="3">
-        <f>E32*0.8</f>
-        <v>0.76</v>
-      </c>
-      <c r="H32" s="3">
-        <f>E32</f>
-        <v>0.95</v>
-      </c>
+        <f>1-2*(1-E32)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="3">
         <v>1</v>
       </c>
@@ -2284,16 +2278,13 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G39" s="3">
-        <f>0.9*E39</f>
-        <v>0.87480000000000002</v>
-      </c>
-      <c r="H39" s="3">
-        <f>E39</f>
-        <v>0.97199999999999998</v>
-      </c>
+        <f>1-2*(1-E39)</f>
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="3">
         <v>1</v>
       </c>
@@ -2615,16 +2606,13 @@
         <v>0.999</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G48" s="3">
-        <f>0.9*E48</f>
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="H48" s="3">
-        <f>E48</f>
-        <v>0.999</v>
-      </c>
+        <f>1-2*(1-E48)</f>
+        <v>0.998</v>
+      </c>
+      <c r="H48" s="3"/>
       <c r="I48" s="3">
         <v>1</v>
       </c>

--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_THF_Ethanol_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7177EC5F-4822-41F1-A018-230AFA072E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77CB1C7-1508-4C59-935C-F1F84EBCF3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="3100" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Load Statements</t>
-  </si>
-  <si>
     <t>g/L/h</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>R402.HMP_to_PSA_rxn.X = x</t>
+  </si>
+  <si>
+    <t>Load statement</t>
   </si>
 </sst>
 </file>
@@ -854,21 +854,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="11" max="11" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -897,13 +897,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -931,16 +931,16 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <f>IF(E2=H2, 1, IF(F2=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -949,13 +949,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="3">
         <v>180</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3">
         <v>120</v>
@@ -968,17 +968,17 @@
         <v>240</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q54" si="0">IF(E3=H3, 1, IF(F3=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -995,7 +995,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3">
         <v>2.76E-2</v>
@@ -1008,14 +1008,14 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>0.27650000000000002</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3">
         <v>0.21629999999999999</v>
@@ -1045,14 +1045,14 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3">
         <v>6.7000000000000004E-2</v>
@@ -1082,16 +1082,16 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -1106,7 +1106,7 @@
         <v>1.0105599999999999</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3">
         <f>(0.35/0.38)*E7</f>
@@ -1122,16 +1122,16 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -1159,16 +1159,16 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1194,16 +1194,16 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1229,16 +1229,16 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1253,7 +1253,7 @@
         <v>0.74019999999999997</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3">
         <v>0.46</v>
@@ -1266,16 +1266,16 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1302,16 +1302,16 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -1326,7 +1326,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
@@ -1340,16 +1340,16 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -1364,7 +1364,7 @@
         <v>1.4419999999999999</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -1377,16 +1377,16 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1395,13 +1395,13 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="3">
         <v>15944</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="3">
         <f>0.8*E15</f>
@@ -1417,16 +1417,16 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -1452,16 +1452,16 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -1487,19 +1487,19 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -1521,22 +1521,22 @@
         <v>101.9</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
@@ -1558,28 +1558,28 @@
         <v>14.909000000000001</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" s="3">
         <v>10</v>
@@ -1598,19 +1598,19 @@
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
@@ -1633,19 +1633,19 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1669,19 +1669,19 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
@@ -1706,19 +1706,19 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
@@ -1743,19 +1743,19 @@
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -1780,25 +1780,25 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="4">
         <v>0.12</v>
@@ -1817,19 +1817,19 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
@@ -1854,19 +1854,19 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
@@ -1891,19 +1891,19 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>27</v>
@@ -1926,19 +1926,19 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
@@ -1961,19 +1961,19 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
@@ -1996,19 +1996,19 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>27</v>
@@ -2032,19 +2032,19 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>27</v>
@@ -2069,19 +2069,19 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="B34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>27</v>
@@ -2106,25 +2106,25 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E35" s="3">
         <v>0.2</v>
@@ -2143,19 +2143,19 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="B36" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>27</v>
@@ -2180,25 +2180,25 @@
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E37" s="3">
         <v>100</v>
@@ -2217,25 +2217,25 @@
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E38" s="3">
         <v>3500000</v>
@@ -2254,19 +2254,19 @@
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>27</v>
@@ -2290,25 +2290,25 @@
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
@@ -2325,25 +2325,25 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E41" s="3">
         <v>0.5</v>
@@ -2362,19 +2362,19 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>27</v>
@@ -2399,25 +2399,25 @@
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2436,19 +2436,19 @@
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>27</v>
@@ -2473,25 +2473,25 @@
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E45" s="3">
         <v>2000000</v>
@@ -2510,25 +2510,25 @@
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -2545,19 +2545,19 @@
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="Q46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="B47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>27</v>
@@ -2582,19 +2582,19 @@
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>27</v>
@@ -2618,25 +2618,25 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Q48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E49" s="3">
         <f>130</f>
@@ -2656,25 +2656,25 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" s="3">
         <v>2000000</v>
@@ -2693,23 +2693,23 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Q50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="B51" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E51" s="3">
         <v>35.334000000000003</v>
@@ -2728,23 +2728,23 @@
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E52" s="3">
         <v>42.439</v>
@@ -2763,23 +2763,23 @@
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E53" s="3">
         <v>35.506</v>
@@ -2798,16 +2798,16 @@
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>14</v>
@@ -2822,7 +2822,7 @@
         <v>168</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54" s="3">
         <v>134.4</v>
@@ -2835,14 +2835,14 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>24</v>
       </c>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>23</v>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
